--- a/biology/Biochimie/Poison/Poison.xlsx
+++ b/biology/Biochimie/Poison/Poison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poisons sont, en biologie, des substances qui provoquent des blessures, des maladies ou la mort d'organismes par une réaction chimique, à l'échelle moléculaire. Cette définition exclut les agents physiques, même de petite taille (un caillot, une bulle d'air dans le sang, un courant électrique, une radiation, etc.). On différencie la pénétration volontaire de substances toxiques dites poisons (intoxication), de la production interne de toxines (intoxination) mais la distinction entre ces deux termes n'est pas toujours observée, même parmi les scientifiques.
 Selon l'observation de Paracelse, considéré comme le fondateur de la toxicologie, « Toutes les choses sont poison, et rien n’est sans poison ; seule la dose fait qu’une chose n’est pas poison », y compris pour les plus nécessaires, comme l'eau, l'oxygène, les vitamines. A contrario, des substances considérées comme poison au-delà de certaines doses, peuvent avoir des propriétés pharmacologiques intéressantes. Par exemple, à faibles doses, l'oxyde d'arsenic peut guérir des lupus[réf. nécessaire]. La plupart des médicaments anti-infectieux efficaces, tels les antibiotiques, sont des poisons et leur posologie est calculée afin de détruire l'agent infectieux sans mettre en danger la vie du patient. Les contre-poisons peuvent également être dangereux, mais leur antagonisme annule les effets toxiques de chacune des deux molécules.
@@ -517,9 +529,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot poison est issu du latin potionem, accusatif de potionis, « action de boire », d'où par métonymie « breuvage, boisson ». Par spécialisation, le mot a désigné un breuvage médicinal et un breuvage empoisonné, un philtre magique[1]. Le sens moderne de boisson suspecte ou empoisonnée se dégage au XIIe siècle[1] mais son étymologie rappelle la maxime de Paracelse « Toutes les choses sont poison, et rien n’est sans poison ; seule la dose fait qu’une chose n’est pas poison »[2], principe de base de la toxicologie mais scientifiquement caduque depuis notamment les recherches sur les perturbateurs endocriniens qui montrent que ces molécules ont des effets plus importants à petites doses qu'à des concentrations plus fortes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot poison est issu du latin potionem, accusatif de potionis, « action de boire », d'où par métonymie « breuvage, boisson ». Par spécialisation, le mot a désigné un breuvage médicinal et un breuvage empoisonné, un philtre magique. Le sens moderne de boisson suspecte ou empoisonnée se dégage au XIIe siècle mais son étymologie rappelle la maxime de Paracelse « Toutes les choses sont poison, et rien n’est sans poison ; seule la dose fait qu’une chose n’est pas poison », principe de base de la toxicologie mais scientifiquement caduque depuis notamment les recherches sur les perturbateurs endocriniens qui montrent que ces molécules ont des effets plus importants à petites doses qu'à des concentrations plus fortes.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Grandes catégories</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue trois grandes catégories de poisons :
 les poisons chimiques (arsenic, cyanure, phénol, sarin, phosgène, etc.) ;
@@ -584,7 +600,9 @@
           <t>Classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Neurotoxiques (Inhibiteurs de la jonction synaptique…) : les neurotoxiques agissent sur l'influx nerveux, empêchent la coordination motrice et bloquent certains muscles essentiels (muscles respiratoires, cœur). Les plus connus sont le curare, les neurotoxines, et les gaz innervants ; de nombreux insecticides appartiennent à cette classe. Le plus souvent, leur cible est l'interface entre la cellule nerveuse et la cellule suivante (nerveuse ou musculaire).
 Poisons nécrosants et poisons hémolysants : les cellules vivantes sont des poches pleines à craquer, qui ne tiennent que grâce à une armature, un filet composé de lipides et de protéines que la cellule entretient en permanence. Certains poisons détruisent ce filet, soit en catalysant et accélérant sa décomposition, soit en prenant la place de certains éléments mais sans assurer la solidité de l'ensemble.
@@ -622,7 +640,9 @@
           <t>Types de dommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le contact ou l'absorption d'un poison peut provoquer des dommages :
 irréversibles (y compris la mort), ou bien temporaires ;
@@ -658,7 +678,9 @@
           <t>Résistance aux poisons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poisons sont tellement présents que la vie serait impossible sans mécanismes antipoisons. Différentes solutions sont adoptées par les êtres vivants :
 l'excrétion, c'est-à-dire l'évacuation (urine, sueur, respiration, etc.). Ce mécanisme est très utilisé pour les poisons d'origine interne, présents par synthèse et en quantité importante (urée, oxygène pour les plantes ou gaz carbonique pour les animaux, etc.) ;
@@ -695,7 +717,9 @@
           <t>Période de latence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains poisons peuvent avoir un effet foudroyant, agissant en quelques minutes, d'autres en quelques heures, d'autres en quelques jours, ou à plusieurs semaines, enfin certains agissant à long terme (sur six mois à plus d'une année, avec une longue période de latence — par exemple avec l'amiante, en raison des très longs délais de développement du cancer de la plèvre (mésothéliome). Cette dernière période pour l'amiante dépasse nettement les vingt ans, dans la majorité des cas de mésothéliomes.
 La période de latence — désignant la période sans symptômes ou le temps moyen au bout duquel le poison fait son effet —, peut être très variable d'un poison à l'autre et peut dépendre d'autres facteurs (résistance au poison…), la plupart des poisons ne faisant pas effet immédiatement, dans la mesure où ils doivent d'abord être assimilés par l'organisme.
@@ -727,9 +751,11 @@
           <t>Doses létales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les doses létales peuvent être très variables, variant de quantités supérieures au gramme/kilogramme au microgramme/kilogramme pour la toxine botulique, poison naturel le plus toxique[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les doses létales peuvent être très variables, variant de quantités supérieures au gramme/kilogramme au microgramme/kilogramme pour la toxine botulique, poison naturel le plus toxique.
 En toxicologie, la dose létale médiane (DL50), dose par kilogramme de poids frais, représente la dose qui entraîne la mort de la moitié des êtres humains ou des organismes vivants présents dans un échantillon.
 </t>
         </is>
@@ -759,7 +785,9 @@
           <t>Détection</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les techniques utilisées pour détecter les poisons dépendent de leur nature. Les analyses physico-chimiques peuvent notamment utiliser les méthodes électrochimiques, chromatographiques et spectrométriques, par exemple une chromatographie couplée à une spectrométrie de masse.
 </t>
@@ -792,26 +820,99 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dans la nature
-Sans poisons, la vie telle que nous la connaissons n'existerait pas. Toutes les espèces vivantes usent largement de poisons, et certaines plus que d'autres :
+          <t>Dans la nature</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sans poisons, la vie telle que nous la connaissons n'existerait pas. Toutes les espèces vivantes usent largement de poisons, et certaines plus que d'autres :
 Pour se défendre contre les micro-organismes, beaucoup d'espèces sécrètent des antibiotiques, du lysozyme. Ces éléments font plus ou moins partie du système immunitaire.
 Pour se prémunir des espèces prédatrices. Il est important de faire la différence entre « vénéneux » et « venimeux » :
 Le terme vénéneux s'applique soit aux plantes toxiques (que ce soit par contact, comme le Sumac, ou par ingestion comme certains champignons), soit à la chair toxique de certains animaux (comme le Fugu).
 Le terme venimeux s'applique uniquement aux animaux sécrétant du venin et pouvant donc l'injecter à une proie ou un attaquant par piqûre (abeilles), morsure (serpents venimeux) ou encore par simple contact (dendrobatidés).
 Pour défendre leur territoire et leurs source d'aliments contre la concurrence (plantes désherbantes, mycotoxines).
-Pour obtenir une capacité offensive beaucoup plus grande et plus économique que la force physique brute, souvent dans le cadre de la chasse (serpents venimeux).
-Par l'homme (hors crimes)
-Les poisons sont employés par l'homme depuis des temps immémoriaux pour des activités de pêche, de chasse, ou de guerre (ex : curares).
-En France, bien avant de parler de « polluants », à la fin du XIXe siècle (pour le phosphore blanc en 1892 par exemple[5]) et au tout début du XXe siècle, sous l'influence des hygiénistes et médecins, on parle de « poisons industriels »[6],[7] dont on commence à vouloir légalement protéger les travailleurs[8], poisons qui affectent souvent mortellement les travailleurs des usines, des champs et moindrement, mais aussi les habitants dont les maisons sont proches des usines de la carbochimie et de la chimie ou proches des usines utilisant de grandes quantités de produits toxiques[9] qui affectent notamment les poumons des personnes exposées[10].
+Pour obtenir une capacité offensive beaucoup plus grande et plus économique que la force physique brute, souvent dans le cadre de la chasse (serpents venimeux).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poison</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Par l'homme (hors crimes)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les poisons sont employés par l'homme depuis des temps immémoriaux pour des activités de pêche, de chasse, ou de guerre (ex : curares).
+En France, bien avant de parler de « polluants », à la fin du XIXe siècle (pour le phosphore blanc en 1892 par exemple) et au tout début du XXe siècle, sous l'influence des hygiénistes et médecins, on parle de « poisons industriels », dont on commence à vouloir légalement protéger les travailleurs, poisons qui affectent souvent mortellement les travailleurs des usines, des champs et moindrement, mais aussi les habitants dont les maisons sont proches des usines de la carbochimie et de la chimie ou proches des usines utilisant de grandes quantités de produits toxiques qui affectent notamment les poumons des personnes exposées.
 Après la révolution industrielle, l'homme répand à grande échelle des poisons souvent avec une véritable volonté et une conscience des buts poursuivis (mais parfois, en revanche, une véritable inconscience des conséquences) :
 éliminer des parasites (poux, moustiques) ;
 éliminer des concurrents (insectes et champignons ravageurs des cultures, « mauvaises herbes ») ;
 se soigner, ou se droguer (le terme anglais (en) drug indique bien la proximité des phénomènes), ou encore se doper ;
 sélectionner des espèces, en associant la résistance au poison avec un caractère utile ;
 tuer, faire la guerre : armes NBC ;
-etc.
-Dans le cadre de crimes
-Dans ce cadre, on emploie parfois l'expression bouillon d’onze heures. Les différents crimes peuvent être, sans exhaustivité :
+etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poison</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dans le cadre de crimes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dans ce cadre, on emploie parfois l'expression bouillon d’onze heures. Les différents crimes peuvent être, sans exhaustivité :
 assassinats politiques (par exemple, assassinats d'opposants politiques) ;
 assassinats de concurrents (politiques, économiques, etc.) ;
 assassinats de personnes gênantes (de témoins…) ;
@@ -827,35 +928,37 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Poison</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Poison</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poison</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Empoisonnements célèbres</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Socrate : Accusé de pervertir les jeunes Athéniens par son idéologie, condamné à mort par l'aréopage d'Athènes, a bu une décoction à base de ciguë, assisté de ses servant(e)s (Platon en fait le récit dans le Phédon).
 Démosthène, homme d’État athénien, se suicide par empoisonnement.
-Rome, en 331 av. J.-C., empoisonnements de masse : Sous les consuls C. Valerius Potitus et M. Claudius Marcellus, de nombreux citoyens de Rome meurent les uns après les autres, empoisonnés par leurs femmes. Une vingtaine de matrones sont prises en train de fabriquer du poison et doivent l'avaler. Cent soixante-dix autres sont condamnées[11].
+Rome, en 331 av. J.-C., empoisonnements de masse : Sous les consuls C. Valerius Potitus et M. Claudius Marcellus, de nombreux citoyens de Rome meurent les uns après les autres, empoisonnés par leurs femmes. Une vingtaine de matrones sont prises en train de fabriquer du poison et doivent l'avaler. Cent soixante-dix autres sont condamnées.
 Cléopâtre VII : Se serait suicidée soit en se laissant mordre par des aspics, soit en se piquant avec une aiguille enduite de poison.
 Britannicus.
 Agnès Sorel.
@@ -872,41 +975,43 @@
 Munir Said Thalib : Un éminent défenseur indonésien des droits de l’Homme, meurt le 7 septembre 2004 après avoir ingurgité de l’arsenic dans un avion entre Jakarta et Amsterdam.
 Viktor Iouchtchenko : Président de la République d'Ukraine depuis le 23 janvier 2005, chef de la coalition politique « Notre Ukraine » (Nacha Ukrayina) depuis 2002, dont le visage est resté grêlé par l’acné chlorique, est empoisonné en 2004, à la tétrachlorodibenzodioxine (TCDD) ou « dioxine Seveso », lors de la campagne électorale qui l’oppose à Viktor Ianoukovytch.
 Alexandre Litvinenko : Ex-espion russe émigré en Angleterre, a été empoisonné au polonium 210 en novembre 2006.
-Affaire de la Josacine empoisonnée : En 1994, Jean-Marc Deperrois a été condamné par la cour d'assises de Seine-Maritime pour le décès d'une enfant de huit ans, Émilie Tanay, empoisonnée au cyanure. Le sirop antibiotique (Josacine) de la petite s'est avéré contenir un cyanure ancien et très dégradé, dont on n'a jamais trouvé la provenance. L'enquête a émis l'hypothèse que l'enfant n'était pas la cible prévue du poison, et c'est sur cette supposition rocambolesque que le jugement a été rendu. Mais quelques années après, un journaliste du Monde a démontré qu'il s'agissait vraisemblablement d'un dramatique accident domestique. L'enfant aurait probablement bu du cyanure trouvé dans une cuisine dont le propriétaire aurait ensuite empoisonné le médicament pour s'affranchir de toute responsabilité[12].
+Affaire de la Josacine empoisonnée : En 1994, Jean-Marc Deperrois a été condamné par la cour d'assises de Seine-Maritime pour le décès d'une enfant de huit ans, Émilie Tanay, empoisonnée au cyanure. Le sirop antibiotique (Josacine) de la petite s'est avéré contenir un cyanure ancien et très dégradé, dont on n'a jamais trouvé la provenance. L'enquête a émis l'hypothèse que l'enfant n'était pas la cible prévue du poison, et c'est sur cette supposition rocambolesque que le jugement a été rendu. Mais quelques années après, un journaliste du Monde a démontré qu'il s'agissait vraisemblablement d'un dramatique accident domestique. L'enfant aurait probablement bu du cyanure trouvé dans une cuisine dont le propriétaire aurait ensuite empoisonné le médicament pour s'affranchir de toute responsabilité.
 Kim Jong-nam : opposant à son demi-frère Kim Jong-un dirigeant de la Corée du Nord, a été empoisonné à l'agent VX sur l'aéroport de Kuala-Lumpur en 2017.
 Les affaires Lafarge et Besnard sont, en France, les deux plus célèbres affaires d'empoisonnement.</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Poison</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Poison</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poison</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Empoisonneurs célèbres</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Agrippine la Jeune, fille de Germanicus et mère de Néron, fait assassiner son second mari Passienus Crispus, immensément riche, pour se lier à l’empereur Claude, son oncle. Puis elle aurait fait empoisonner l’empereur Claude, le 13 octobre 54, à l'aide d'une empoisonneuse nommée Locuste (selon l'auteur romain Suétone, et son ouvrage Vies des douze Césars).
 Néron, fils d'Agrippine, fait empoisonner son frère Britannicus (selon l'auteur romain Suétone, et son ouvrage Vies des douze Césars).
-Charles II de Navarre, dit Charles le Mauvais (mais la liste de ses victimes est sujette à caution[13]).
+Charles II de Navarre, dit Charles le Mauvais (mais la liste de ses victimes est sujette à caution).
 La famille Borgia :
 le pape Alexandre VI, Roderic de Borgia (bien que cela soit une rumeur). Lui-même serait mort en ayant bu du vin empoisonné ;
 César, fils de Rodéric Borgia.
@@ -922,74 +1027,78 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Poison</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Poison</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poison</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Empoisonnement dans la littérature</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Le poison tient une place importante dans plusieurs pièces de William Shakespeare : Hamlet ou Roméo et Juliette par exemple.
 Phèdre, personnage mythique ayant inspiré les tragédies d'Euripide, Sénèque, Racine, se suicide par empoisonnement.
-Balzac dans Sur Catherine de Médicis : « Il est certain que pendant le seizième siècle, dans les années qui le précédèrent et le suivirent, l’empoisonnement était arrivé à une perfection inconnue à la chimie moderne et que l’histoire a constatée. L’Italie, berceau des sciences modernes, fut, à cette époque, inventrice et maîtresse de ces secrets dont plusieurs se perdirent. […] À Florence, cet art horrible était à un si haut point, qu’une femme partageant une pêche avec un duc, en se servant d’une lame d’or dont un côté seulement était empoisonné, mangeait la moitié saine et donnait la mort avec l’autre. Une paire de gants parfumés infiltrait par les pores une maladie mortelle. On mettait le poison dans un bouquet de roses naturelles dont la seule senteur une fois respirée donnait la mort. Don Juan d’Autriche fut, dit-on, empoisonné par une paire de bottes »[14].
-Dans la pièce Lucrèce Borgia de Victor Hugo, à la fin du repas (acte III, scène 2) le personnage de Lucrèce annonce à ses invités qu'elle les a empoisonnés[15].
+Balzac dans Sur Catherine de Médicis : « Il est certain que pendant le seizième siècle, dans les années qui le précédèrent et le suivirent, l’empoisonnement était arrivé à une perfection inconnue à la chimie moderne et que l’histoire a constatée. L’Italie, berceau des sciences modernes, fut, à cette époque, inventrice et maîtresse de ces secrets dont plusieurs se perdirent. […] À Florence, cet art horrible était à un si haut point, qu’une femme partageant une pêche avec un duc, en se servant d’une lame d’or dont un côté seulement était empoisonné, mangeait la moitié saine et donnait la mort avec l’autre. Une paire de gants parfumés infiltrait par les pores une maladie mortelle. On mettait le poison dans un bouquet de roses naturelles dont la seule senteur une fois respirée donnait la mort. Don Juan d’Autriche fut, dit-on, empoisonné par une paire de bottes ».
+Dans la pièce Lucrèce Borgia de Victor Hugo, à la fin du repas (acte III, scène 2) le personnage de Lucrèce annonce à ses invités qu'elle les a empoisonnés.
 Gustave Flaubert décrit le suicide à l'arsenic du personnage principal dans le roman Madame Bovary.
 Dans le roman Le Nom de la rose d'Umberto Eco, le personnage de Jorge de Burgos fait usage d'un poison.
 Dans Le Comte de Monte-Cristo, Valentine de Villefort est empoisonnée par sa belle-mère qui veut faire main-basse sur l'héritage du grand-père (et de la grand-mère) de Valentine, mais celui-ci mithridatisait Valentine depuis quelques années et elle survit.
 Les empoisonnements foisonnent dans les romans policiers : Le Miroir se brisa, La Mort dans les nuages, Drame en trois actes, Le Signe des quatre, les Dix petits nègres, etc.
 Dans La Geste des Princes-Démons, cycle de science-fiction en 5 tomes écrit par l'écrivain américain Jack Vance, les Sarkoys originaires de la planète Sarkovy sont des maîtres empoisonneurs qui exercent leurs talents contre rétribution. Leur poison préféré est le kluthe, qui tue par simple contact, rapidement ou très lentement en fonction du dosage choisi. Une scène d'empoisonnement au kluthe est relatée dans le premier épisode de la série, Le Prince des étoiles.
 La recette des Borgia rapportée par Voltaire : « La bave d'un cochon rendu enragé en le suspendant par les pieds, la tête en bas, et en le battant longtemps jusqu'à la mort. […] Il semble que le poison des Borgia ait été un mélange d'acide arsénieux et d'alcaloïdes putrides. Il se préparait ainsi : on sacrifiait un porc, on saupoudrait d'acide arsénieux les organes abdominaux, et on attendait que la décomposition - retardée d'ailleurs par l'arsenic - fût complète. Puis, suivant qu'on comptait l'utiliser sous forme de poudre ou de gouttes, on n'avait plus qu'à faire sécher la masse putréfiée ou à en recueillir les liquides. »
-« Rien n'est poison, tout est poison : seule la dose fait le poison. » Plus populairement : « L'excès nuit en tout. »[16] (Theophrastus Bombastus von Hohenheim, dit Paracelse).
+« Rien n'est poison, tout est poison : seule la dose fait le poison. » Plus populairement : « L'excès nuit en tout. » (Theophrastus Bombastus von Hohenheim, dit Paracelse).
 Comte Cain (série populaire de Mangas) : le personnage principal, le comte Cain C. Hargreaves, surnommé le comte des Poisons, résout des enquêtes et des crimes mystiques (tels que des supposés revenants, des personnes supposément assassinées par des malédictions et des fantômes, etc.) dans les années entourant l'époque de Jack l'Éventreur, grâce à ses poisons et à ses connaissances sur ceux-ci.
 « Entre une empoisonneuse et une mauvaise cuisinière il n'y a qu'une différence d'intention. » Desproges.
 Dans le roman Dune de Frank Herbert plusieurs poisons imaginaires sont utilisés. Il est d'ailleurs courant dans les familles nobles d'utiliser un détecteur de poison dans ce qu'ils vont manger. Le Dr Yueh trahit son suzerain, le duc Leto Atréides, au profit du baron Harkonnen. Il lui met un gaz toxique dans une fausse dent: le duc doit s'en servir pour tuer le baron. Le baron a un pressentiment qui lui sauve la vie. Le gaz toxique ne tue tue donc un conseiller du baron, Piter de Vries (et le duc aussi bien sûr). Par ailleurs Feyd-Rautha se bat souvent dans l'arène contre un adversaire (non volontaire) et déclare ouvertement utiliser des poisons ; il va jusqu'à parfois décrire les effets au public une fois son adversaire à l'agonie. Il essaye aussi de tuer son oncle, le baron Harkonnen, en mettant une épine empoisonnée sur un jeune garçon (le baron est pédophile). Mais le baron est prévenu par Thufir Hawat. Ce dernier est également empoisonné à son insu par un « poison résiduel » (œuvre de Piter de Vries), une substance qui ne tue que si l'on cesse de donner régulièrement l'antidote.</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Poison</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Poison</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poison</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Empoisonnement dans les films et séries</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>le film Arsenic et vieilles dentelles (1944)
 la série Game of Thrones, (2011 à 2019) de nombreux poisons imaginaires sont fréquemment utilisés et jouent un rôle-clé. Plusieurs personnes sont tuées: Jon Arryn, Joffrey Baratheon, Myrcella Baratheon. Daenerys Targaryen survit à deux tentatives (du vin et une araignée). La Montagne est empoisonnée par Oberyn Martell, mais Qyburn arrive à le maintenir en vie via de la magie noire (toutefois, il ne mange pas, ne boit pas…). Bronn est empoisonné par le Long Adieu lors d'un combat avec Tyern Sand, mais celle-ci lui donne l'antidote. Lorsque Stannis Baratheon attaque Port-Réal, Cersei Lannister est convaincue que la défaite approche: elle se prépare donc à tuer son fils Tommen Baratheon et elle-même avec de l'essence de Noxombre; mais les troupes de son père arrivent en renfort et gagnent la bataille, donc elle ne l'utilise pas.</t>
